--- a/data/主观CTA_济海实恒对冲二号.xlsx
+++ b/data/主观CTA_济海实恒对冲二号.xlsx
@@ -1167,12 +1167,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.0000_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="177" formatCode="0.0000_);[Red]\(0.0000\)"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -1784,10 +1785,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2176,26 +2177,26 @@
   <dimension ref="A1:D374"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="11.5" style="1" customWidth="1"/>
-    <col min="2" max="4" width="9.375" style="1" customWidth="1"/>
+    <col min="2" max="4" width="9.375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -7422,12 +7423,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:D374" etc:filterBottomFollowUsedRange="0">
-    <sortState ref="A2:D374">
-      <sortCondition ref="A1"/>
-    </sortState>
-    <extLst/>
-  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
